--- a/biology/Médecine/Charles_Cotonnec/Charles_Cotonnec.xlsx
+++ b/biology/Médecine/Charles_Cotonnec/Charles_Cotonnec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Cotonnec est un médecin breton né à Saint-Thurien le 22 avril 1876 et mort à Paris le 30 mars 1935.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de paysans (ferme de Kerner à Saint-Thurien), il fut envoyé au petit séminaire de Pont-Croix dans le Cap Sizun, et de là au lycée de Quimper avant de partir faire des études de médecine à Paris.
 En 1929 il fonda la maison d'éditions Armorica.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Goulc'han Kervella, Médecine et littérature en langue bretonne au XIXe et XXe siècles, Brest, Éditions du Liogan, 1991, p. 301-302.
 Gontard Marc (dir.), Dictionnaire des écrivains bretons du XXe siècle, Rennes, Presses Universitaires de Rennes, 2002, p. 63.</t>
@@ -576,9 +592,11 @@
           <t>Archives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un fonds Charles Cotonnec a été déposé à la Bibliothèque Yves-Le Gallo[2] du Centre de recherche bretonne et celtique (CRBC) de l'Université de Bretagne occidentale. Il comprend 88 pièces d'archives inédites dont l'inventaire est disponible sur le site du CRBC[3]. Ce fonds est accessible à la consultation.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un fonds Charles Cotonnec a été déposé à la Bibliothèque Yves-Le Gallo du Centre de recherche bretonne et celtique (CRBC) de l'Université de Bretagne occidentale. Il comprend 88 pièces d'archives inédites dont l'inventaire est disponible sur le site du CRBC. Ce fonds est accessible à la consultation.</t>
         </is>
       </c>
     </row>
